--- a/test/general.xlsx
+++ b/test/general.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
+    <sheet name="table3" sheetId="4" r:id="rId2"/>
+    <sheet name="table4" sheetId="5" r:id="rId3"/>
+    <sheet name="table" sheetId="2" r:id="rId4"/>
+    <sheet name="table2" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>text</t>
   </si>
@@ -48,6 +52,90 @@
   </si>
   <si>
     <t>datetime</t>
+  </si>
+  <si>
+    <t>Column B</t>
+  </si>
+  <si>
+    <t>Column C</t>
+  </si>
+  <si>
+    <t>Column D</t>
+  </si>
+  <si>
+    <t>Column E</t>
+  </si>
+  <si>
+    <t>&lt;&lt;--</t>
+  </si>
+  <si>
+    <t>Str1</t>
+  </si>
+  <si>
+    <t>Str2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Column F</t>
+  </si>
+  <si>
+    <t>Column G</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>B5</t>
   </si>
 </sst>
 </file>
@@ -83,11 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,6 +186,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -367,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -427,4 +519,368 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E12:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43211</v>
+      </c>
+      <c r="F3">
+        <v>0.20011323191065111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f>D3+1</f>
+        <v>43212</v>
+      </c>
+      <c r="F4">
+        <v>0.27939873773400004</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B10" si="0">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D10" si="1">D4+1</f>
+        <v>43213</v>
+      </c>
+      <c r="F5">
+        <v>9.5059167683513524E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>43214</v>
+      </c>
+      <c r="F6">
+        <v>7.4402306732486267E-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>43215</v>
+      </c>
+      <c r="F7">
+        <v>0.82422780912015003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>43216</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>0.62058835778747101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>43217</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>0.91741510177329644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>43218</v>
+      </c>
+      <c r="F10">
+        <v>0.67496048826901078</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/general.xlsx
+++ b/test/general.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="table4" sheetId="5" r:id="rId3"/>
     <sheet name="table" sheetId="2" r:id="rId4"/>
     <sheet name="table2" sheetId="3" r:id="rId5"/>
+    <sheet name="empty" sheetId="6" r:id="rId6"/>
+    <sheet name="table5" sheetId="7" r:id="rId7"/>
+    <sheet name="table6" sheetId="8" r:id="rId8"/>
+    <sheet name="table7" sheetId="9" r:id="rId9"/>
+    <sheet name="lookup" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>text</t>
   </si>
@@ -136,6 +141,30 @@
   </si>
   <si>
     <t>B5</t>
+  </si>
+  <si>
+    <t>HEADER</t>
+  </si>
+  <si>
+    <t>hey</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>name3</t>
   </si>
 </sst>
 </file>
@@ -521,6 +550,119 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(B3,$F$3:$G$5,2,FALSE)</f>
+        <v>name1</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP(B3,$I$3:$J$5,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C5" si="0">VLOOKUP(B4,$F$3:$G$5,2,FALSE)</f>
+        <v>name2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="1">VLOOKUP(B4,$I$3:$J$5,2,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>name3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F6"/>
@@ -583,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E12:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -883,4 +1025,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/general.xlsx
+++ b/test/general.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noronha/.julia/v0.6/XLSX/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/.julia/v0.6/XLSX/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FA6A21-28DA-1647-A85B-30F73601BA2F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -22,8 +23,9 @@
     <sheet name="table6" sheetId="8" r:id="rId8"/>
     <sheet name="table7" sheetId="9" r:id="rId9"/>
     <sheet name="lookup" sheetId="10" r:id="rId10"/>
+    <sheet name="header_error" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>text</t>
   </si>
@@ -166,11 +168,26 @@
   <si>
     <t>name3</t>
   </si>
+  <si>
+    <t>COLUMN_A</t>
+  </si>
+  <si>
+    <t>COLUMN_B</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -485,10 +502,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -551,10 +568,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -663,8 +680,56 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2122C239-B27E-4F47-96FD-DE9E78741957}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -722,7 +787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E12:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -763,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -976,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1028,7 +1093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1042,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1087,7 +1152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1137,7 +1202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
